--- a/YoutubeTrue.xlsx
+++ b/YoutubeTrue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435F38EF-A8ED-4B9E-8492-DCCE84A392A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF43E5AB-54D1-42E7-A86B-899F64C515F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="410" yWindow="0" windowWidth="18200" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>The polymer clay usually gets really hard. The best thing to do is to buy an oven thermometer and check the temperature of your oven :)</t>
   </si>
   <si>
-    <t>[(4, 16, 'polymer clay', 'negative', 0.98)]</t>
-  </si>
-  <si>
     <t>just wondering why Australia isnt included in this free offer? we never get any goodies :( makes me feel left out :( come on FIMO do something for us Aussies please</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
 (38, 50, 'polymer clay', 'positive')]</t>
   </si>
   <si>
-    <t>[(17, 26, 'fimo clay', 'negative', 0.99)]</t>
-  </si>
-  <si>
     <t>[(0, 8, 'Fimo pro', 'negative'),
 (227, 232, 'Color', 'positive')]</t>
   </si>
@@ -380,9 +374,6 @@
     <t>[(100, 108, 'material', 'positive')]</t>
   </si>
   <si>
-    <t>[(13, 25, 'fimo liquid!', 'negative', 1.0)]</t>
-  </si>
-  <si>
     <t>[(50, 64, 'leather effect', 'positive')]</t>
   </si>
   <si>
@@ -390,6 +381,15 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>[(4, 16, 'polymer clay', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(17, 26, 'fimo clay', 'negative')]</t>
+  </si>
+  <si>
+    <t>[(13, 25, 'fimo liquid!', 'negative')]</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -788,12 +788,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -801,15 +801,15 @@
     </row>
     <row r="5" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="7" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="8" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="9" spans="1:2" ht="129.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="10" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="11" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -857,15 +857,15 @@
     </row>
     <row r="12" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="14" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="15" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="16" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="17" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="18" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="19" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -921,15 +921,15 @@
     </row>
     <row r="20" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="22" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="23" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="24" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="25" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="26" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="27" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="28" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="29" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -1001,15 +1001,15 @@
     </row>
     <row r="30" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="32" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -1025,15 +1025,15 @@
     </row>
     <row r="33" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="35" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="36" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="38" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
@@ -1073,15 +1073,15 @@
     </row>
     <row r="39" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="41" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="42" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="43" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="44" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="45" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="46" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="47" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="48" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="49" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="50" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="51" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="52" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2</v>
@@ -1185,15 +1185,15 @@
     </row>
     <row r="53" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="55" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2</v>
@@ -1209,15 +1209,15 @@
     </row>
     <row r="56" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="58" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="59" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="60" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="61" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="62" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="63" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="64" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="65" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="66" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="67" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="68" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="69" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="70" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="71" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="72" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="73" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="74" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="75" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="76" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>2</v>
@@ -1377,15 +1377,15 @@
     </row>
     <row r="77" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>2</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="79" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="80" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="81" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>2</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="82" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>2</v>
@@ -1425,23 +1425,23 @@
     </row>
     <row r="83" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>2</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="86" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>2</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="87" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>2</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="88" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="89" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="90" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="91" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -1497,15 +1497,15 @@
     </row>
     <row r="92" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>2</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="94" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>2</v>
@@ -1521,15 +1521,15 @@
     </row>
     <row r="95" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>2</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="97" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="98" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>2</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="99" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>2</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="100" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="101" spans="1:2" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
